--- a/resource/fileApus/ApusPresResumen0012.xlsx
+++ b/resource/fileApus/ApusPresResumen0012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>ANALISIS DE PRECIOS UNITARIOS</t>
   </si>
@@ -89,7 +89,7 @@
  B</t>
   </si>
   <si>
-    <t>Chofer camiones pesados, volquetas, trailer, etc.</t>
+    <t>Fierrero Categoria D2</t>
   </si>
   <si>
     <t>-- SUBTOTAL (N)</t>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>VALOR OFERTADO:</t>
+  </si>
+  <si>
+    <t>Camion distribuidor de asfalto</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -269,6 +272,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -286,7 +292,7 @@
     <col min="7" max="7" width="12.640625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.86328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -327,7 +333,7 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D4"/>
@@ -384,7 +390,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>198.09</v>
+        <v>136.47</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -439,7 +445,7 @@
         <f>SUM(D11*E11)</f>
       </c>
       <c r="G11" t="n" s="9">
-        <v>3.2</v>
+        <v>2.0</v>
       </c>
       <c r="H11" s="9">
         <f>SUM(F11*G11)</f>
@@ -499,13 +505,13 @@
         <v>3.0</v>
       </c>
       <c r="E15" t="n" s="9">
-        <v>5.15</v>
+        <v>3.55</v>
       </c>
       <c r="F15" s="9">
         <f>SUM(D15*E15)</f>
       </c>
       <c r="G15" t="n" s="9">
-        <v>3.2</v>
+        <v>2.0</v>
       </c>
       <c r="H15" s="9">
         <f>SUM(F15*G15)</f>
@@ -564,7 +570,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="n" s="9">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G19" t="n" s="9">
         <v>3.48</v>
@@ -630,12 +636,14 @@
         <v>20.0</v>
       </c>
       <c r="F23" t="n" s="9">
-        <v>21.0</v>
-      </c>
-      <c r="G23" s="9">
-        <f>SUM(F23*G23)</f>
-      </c>
-      <c r="H23"/>
+        <v>2.0</v>
+      </c>
+      <c r="G23" t="n" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="H23" s="9">
+        <f>SUM(E23*F23*G23)</f>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="s">
@@ -725,6 +733,588 @@
     </row>
     <row r="30">
       <c r="B30"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" s="8"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="n">
+        <v>641.93</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E42" t="n" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="F42" s="12">
+        <f>SUM(D42*E42)</f>
+      </c>
+      <c r="G42" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H42" s="12">
+        <f>SUM(F42*G42)</f>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" t="n" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E43" t="n" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="F43" s="12">
+        <f>SUM(D43*E43)</f>
+      </c>
+      <c r="G43" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H43" s="12">
+        <f>SUM(F43*G43)</f>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" t="n" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E44" t="n" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="F44" s="12">
+        <f>SUM(D44*E44)</f>
+      </c>
+      <c r="G44" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H44" s="12">
+        <f>SUM(F44*G44)</f>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45" s="12">
+        <f>SUM(H42:H44)</f>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E48" t="n" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="F48" s="12">
+        <f>SUM(D48*E48)</f>
+      </c>
+      <c r="G48" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H48" s="12">
+        <f>SUM(F48*G48)</f>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E49" t="n" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="F49" s="12">
+        <f>SUM(D49*E49)</f>
+      </c>
+      <c r="G49" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H49" s="12">
+        <f>SUM(F49*G49)</f>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E50" t="n" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="F50" s="12">
+        <f>SUM(D50*E50)</f>
+      </c>
+      <c r="G50" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H50" s="12">
+        <f>SUM(F50*G50)</f>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="12">
+        <f>SUM(H48:H50)</f>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G54" t="n" s="12">
+        <v>3.48</v>
+      </c>
+      <c r="H54" s="12">
+        <f>SUM(F54*G54)</f>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G55" t="n" s="12">
+        <v>3.48</v>
+      </c>
+      <c r="H55" s="12">
+        <f>SUM(F55*G55)</f>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="12">
+        <f>SUM(H54:H55)</f>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F59" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G59" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H59" s="12">
+        <f>SUM(E59*F59*G59)</f>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F60" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G60" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H60" s="12">
+        <f>SUM(E60*F60*G60)</f>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F61" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G61" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H61" s="12">
+        <f>SUM(E61*F61*G61)</f>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="12">
+        <f>SUM(H59:H61)</f>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="12">
+        <f>SUM(H45+H51+H56+H62)</f>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H64" s="12">
+        <f>SUM(H63*G64)</f>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H65" s="12">
+        <f>SUM(H63*G65)</f>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="12">
+        <f>SUM(H63:H65)</f>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="12">
+        <f>SUM(H66)</f>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -753,6 +1343,38 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H38"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
